--- a/data/trans_orig/P1002-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>16843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9306</v>
+        <v>10204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26249</v>
+        <v>26871</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0355515007858699</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01964183275981239</v>
+        <v>0.02153670832178672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05540356907760177</v>
+        <v>0.05671648808523808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>18450</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11052</v>
+        <v>11225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27498</v>
+        <v>28439</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06016066675560836</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03603593661752787</v>
+        <v>0.03660020380880931</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08966320816035848</v>
+        <v>0.09273061350725834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -786,19 +786,19 @@
         <v>35294</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24174</v>
+        <v>25309</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46872</v>
+        <v>48359</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04522166864866569</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03097466828359233</v>
+        <v>0.03242867677608292</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06005649240442793</v>
+        <v>0.06196258754791459</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>456933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447527</v>
+        <v>446905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464470</v>
+        <v>463572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9644484992141301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9445964309223983</v>
+        <v>0.943283511914762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803581672401877</v>
+        <v>0.9784632916782133</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -836,19 +836,19 @@
         <v>288230</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279182</v>
+        <v>278241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295628</v>
+        <v>295455</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9398393332443916</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9103367918396418</v>
+        <v>0.9072693864927416</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9639640633824724</v>
+        <v>0.9633997961911905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>718</v>
@@ -857,19 +857,19 @@
         <v>745163</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>733585</v>
+        <v>732098</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>756283</v>
+        <v>755148</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9547783313513343</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.939943507595572</v>
+        <v>0.9380374124520854</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9690253317164076</v>
+        <v>0.967571323223917</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>13156</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6457</v>
+        <v>6655</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23259</v>
+        <v>23077</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03585430219237937</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01759850820251474</v>
+        <v>0.01813780141112494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06338725350633988</v>
+        <v>0.06289052172484834</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -982,19 +982,19 @@
         <v>26386</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17620</v>
+        <v>17964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37684</v>
+        <v>37431</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07095701856462081</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04738238303984418</v>
+        <v>0.04830667066780026</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1013385974404858</v>
+        <v>0.1006571404744046</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -1003,19 +1003,19 @@
         <v>39543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26717</v>
+        <v>27539</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53162</v>
+        <v>52788</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05352279769410588</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03616225788356777</v>
+        <v>0.03727505763989643</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07195695718458039</v>
+        <v>0.07145137144819315</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>353778</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>343675</v>
+        <v>343857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360477</v>
+        <v>360279</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9641456978076206</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9366127464936602</v>
+        <v>0.9371094782751517</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9824014917974853</v>
+        <v>0.981862198588875</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>338</v>
@@ -1053,19 +1053,19 @@
         <v>345479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334181</v>
+        <v>334434</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>354245</v>
+        <v>353901</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9290429814353792</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8986614025595142</v>
+        <v>0.8993428595255955</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9526176169601559</v>
+        <v>0.9516933293321997</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>677</v>
@@ -1074,19 +1074,19 @@
         <v>699256</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>685637</v>
+        <v>686011</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>712082</v>
+        <v>711260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9464772023058942</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9280430428154196</v>
+        <v>0.9285486285518069</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9638377421164323</v>
+        <v>0.9627249423601035</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>27990</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19836</v>
+        <v>20116</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39321</v>
+        <v>38435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05160510031117336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0365713741335371</v>
+        <v>0.03708791151513115</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07249680031283882</v>
+        <v>0.07086272897598332</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>16814</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9432</v>
+        <v>9870</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25954</v>
+        <v>27513</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1002111494917101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05621404692350179</v>
+        <v>0.05882523822341133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1546887113230128</v>
+        <v>0.1639784578533226</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1220,19 +1220,19 @@
         <v>44804</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33751</v>
+        <v>33240</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60289</v>
+        <v>59219</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06308855377614936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04752497392498745</v>
+        <v>0.04680496339496674</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08489404513700534</v>
+        <v>0.083387342238096</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>514399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503068</v>
+        <v>503954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>522553</v>
+        <v>522273</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9483948996888266</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9275031996871611</v>
+        <v>0.9291372710240166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9634286258664628</v>
+        <v>0.9629120884848688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -1270,19 +1270,19 @@
         <v>150968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141828</v>
+        <v>140269</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158350</v>
+        <v>157912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8997888505082899</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8453112886769871</v>
+        <v>0.8360215421466772</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.943785953076498</v>
+        <v>0.9411747617765887</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>651</v>
@@ -1291,19 +1291,19 @@
         <v>665367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649882</v>
+        <v>650952</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>676420</v>
+        <v>676931</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9369114462238507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9151059548629946</v>
+        <v>0.9166126577619039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9524750260750124</v>
+        <v>0.9531950366050332</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>82040</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65773</v>
+        <v>65393</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99336</v>
+        <v>98842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06625048590587136</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05311378220002898</v>
+        <v>0.05280735207098436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08021756499809019</v>
+        <v>0.07981815654792508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1416,19 +1416,19 @@
         <v>61096</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46436</v>
+        <v>46976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75778</v>
+        <v>77128</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08553426256666986</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06501094503276621</v>
+        <v>0.06576677970305975</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1060889050497607</v>
+        <v>0.1079793352687706</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -1437,19 +1437,19 @@
         <v>143136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121071</v>
+        <v>122557</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166944</v>
+        <v>167206</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07330465962100448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06200452195815458</v>
+        <v>0.06276529916118308</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08549738956013786</v>
+        <v>0.08563143779391086</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1156294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1138998</v>
+        <v>1139492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1172561</v>
+        <v>1172941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9337495140941287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9197824350019094</v>
+        <v>0.9201818434520752</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9468862177999706</v>
+        <v>0.9471926479290158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>633</v>
@@ -1487,19 +1487,19 @@
         <v>653189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>638507</v>
+        <v>637157</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>667849</v>
+        <v>667309</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9144657374333302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8939110949502393</v>
+        <v>0.8920206647312294</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9349890549672338</v>
+        <v>0.9342332202969402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1775</v>
@@ -1508,19 +1508,19 @@
         <v>1809484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1785676</v>
+        <v>1785414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1831549</v>
+        <v>1830063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9266953403789955</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9145026104398621</v>
+        <v>0.9143685622060891</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9379954780418454</v>
+        <v>0.937234700838817</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>20470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12467</v>
+        <v>12959</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32072</v>
+        <v>31964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05839286406347084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03556409717361179</v>
+        <v>0.03696612042305771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09148907127297309</v>
+        <v>0.09118047780128329</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1633,19 +1633,19 @@
         <v>50987</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37895</v>
+        <v>38234</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65801</v>
+        <v>66020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08964764408425878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0666277702641581</v>
+        <v>0.06722393202988489</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1156938246305846</v>
+        <v>0.1160795527123604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -1654,19 +1654,19 @@
         <v>71457</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55354</v>
+        <v>56199</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89732</v>
+        <v>89650</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07772939857819587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06021311490950423</v>
+        <v>0.06113232716957291</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0976079689301922</v>
+        <v>0.09751858270306657</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>330085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>318483</v>
+        <v>318591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>338088</v>
+        <v>337596</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9416071359365291</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9085109287270275</v>
+        <v>0.9088195221987152</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9644359028263884</v>
+        <v>0.9630338795769422</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>491</v>
@@ -1704,19 +1704,19 @@
         <v>517765</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>502951</v>
+        <v>502732</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>530857</v>
+        <v>530518</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9103523559157413</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8843061753694155</v>
+        <v>0.8839204472876399</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.933372229735842</v>
+        <v>0.9327760679701151</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>812</v>
@@ -1725,19 +1725,19 @@
         <v>847850</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>829575</v>
+        <v>829657</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>863953</v>
+        <v>863108</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9222706014218042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9023920310698079</v>
+        <v>0.9024814172969333</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9397868850904958</v>
+        <v>0.938867672830427</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>10034</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4733</v>
+        <v>5600</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18839</v>
+        <v>17519</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03364874882779453</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01587260100762788</v>
+        <v>0.01877765486302261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06317597419503453</v>
+        <v>0.05874895127563363</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>108</v>
@@ -1850,19 +1850,19 @@
         <v>112003</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93721</v>
+        <v>94305</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133406</v>
+        <v>134259</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08969138950727486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07505129449106389</v>
+        <v>0.07551894167298751</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1068308427506052</v>
+        <v>0.1075137978583441</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>118</v>
@@ -1871,19 +1871,19 @@
         <v>122037</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101203</v>
+        <v>102447</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145574</v>
+        <v>146605</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07888830336487464</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06542076272369027</v>
+        <v>0.06622455451000615</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09410297450972811</v>
+        <v>0.0947694861157404</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>288167</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279362</v>
+        <v>280682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293468</v>
+        <v>292601</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9663512511722054</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9368240258049656</v>
+        <v>0.9412510487243664</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9841273989923721</v>
+        <v>0.9812223451369774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1130</v>
@@ -1921,19 +1921,19 @@
         <v>1136757</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1115354</v>
+        <v>1114501</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1155039</v>
+        <v>1154455</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9103086104927252</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8931691572493948</v>
+        <v>0.8924862021416566</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9249487055089366</v>
+        <v>0.9244810583270126</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1426</v>
@@ -1942,19 +1942,19 @@
         <v>1424923</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1401386</v>
+        <v>1400355</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1445757</v>
+        <v>1444513</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9211116966351254</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9058970254902716</v>
+        <v>0.9052305138842597</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9345792372763092</v>
+        <v>0.9337754454899938</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>170534</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145858</v>
+        <v>147914</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198111</v>
+        <v>198274</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05214802150133765</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04460224071666011</v>
+        <v>0.04523098389840441</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0605807604682306</v>
+        <v>0.06063071429910209</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>276</v>
@@ -2067,19 +2067,19 @@
         <v>285736</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>255153</v>
+        <v>255241</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>321303</v>
+        <v>322271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08458430184159904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07553084983731034</v>
+        <v>0.07555694813477547</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09511291970802926</v>
+        <v>0.09539953689239879</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>444</v>
@@ -2088,19 +2088,19 @@
         <v>456270</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>417835</v>
+        <v>415146</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>497684</v>
+        <v>495231</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06862945986868096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06284825264327082</v>
+        <v>0.06244375366225875</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0748587411809053</v>
+        <v>0.0744897604213853</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3099656</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3072079</v>
+        <v>3071916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3124332</v>
+        <v>3122276</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9478519784986623</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9394192395317694</v>
+        <v>0.9393692857008978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9553977592833398</v>
+        <v>0.9547690161015956</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3020</v>
@@ -2138,19 +2138,19 @@
         <v>3092388</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3056821</v>
+        <v>3055853</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3122971</v>
+        <v>3122883</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.915415698158401</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9048870802919702</v>
+        <v>0.9046004631076012</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9244691501626894</v>
+        <v>0.9244430518652249</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6059</v>
@@ -2159,19 +2159,19 @@
         <v>6192044</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6150630</v>
+        <v>6153083</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6230479</v>
+        <v>6233168</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.931370540131319</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9251412588190947</v>
+        <v>0.9255102395786148</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9371517473567291</v>
+        <v>0.9375562463377413</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>17160</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10215</v>
+        <v>10010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27776</v>
+        <v>27618</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03933270236317538</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02341438825955088</v>
+        <v>0.02294461474491285</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06366747192419113</v>
+        <v>0.06330331549590518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2526,19 +2526,19 @@
         <v>22174</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13646</v>
+        <v>13562</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33171</v>
+        <v>32632</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07051594709774207</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04339546324320056</v>
+        <v>0.04312847279638259</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1054860661466704</v>
+        <v>0.1037734728017486</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2547,19 +2547,19 @@
         <v>39334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27676</v>
+        <v>26999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53582</v>
+        <v>52772</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05239429550818429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0368656259595783</v>
+        <v>0.03596404905179432</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07137361095691433</v>
+        <v>0.07029491394612025</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>419114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408498</v>
+        <v>408656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426059</v>
+        <v>426264</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9606672976368246</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9363325280758087</v>
+        <v>0.9366966845040948</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9765856117404492</v>
+        <v>0.9770553852550872</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>263</v>
@@ -2597,19 +2597,19 @@
         <v>292280</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281283</v>
+        <v>281822</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300808</v>
+        <v>300892</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9294840529022579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8945139338533297</v>
+        <v>0.8962265271982514</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9566045367567995</v>
+        <v>0.9568715272036173</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>651</v>
@@ -2618,19 +2618,19 @@
         <v>711394</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>697146</v>
+        <v>697956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>723052</v>
+        <v>723729</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9476057044918157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9286263890430858</v>
+        <v>0.9297050860538794</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9631343740404219</v>
+        <v>0.9640359509482053</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>20769</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12768</v>
+        <v>12524</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33613</v>
+        <v>32358</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04959134410159909</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03048729702073826</v>
+        <v>0.02990470542465536</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0802616435207337</v>
+        <v>0.07726440288668063</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>32075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20898</v>
+        <v>21492</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44470</v>
+        <v>45408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09489437885829494</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06182763009394272</v>
+        <v>0.06358254564564622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1315626043783637</v>
+        <v>0.1343376132685581</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -2764,19 +2764,19 @@
         <v>52844</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39176</v>
+        <v>39538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70183</v>
+        <v>68399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06982491378651975</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05176448094771404</v>
+        <v>0.05224331644016599</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0927348878503714</v>
+        <v>0.09037864005416156</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>398028</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>385184</v>
+        <v>386439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>406029</v>
+        <v>406273</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.950408655898401</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9197383564792662</v>
+        <v>0.9227355971133185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9695127029792617</v>
+        <v>0.9700952945753446</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>277</v>
@@ -2814,19 +2814,19 @@
         <v>305936</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>293541</v>
+        <v>292603</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317113</v>
+        <v>316519</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.905105621141705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8684373956216364</v>
+        <v>0.865662386731442</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9381723699060573</v>
+        <v>0.9364174543543539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>634</v>
@@ -2835,19 +2835,19 @@
         <v>703964</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>686625</v>
+        <v>688409</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>717632</v>
+        <v>717270</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9301750862134802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9072651121496286</v>
+        <v>0.9096213599458385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9482355190522859</v>
+        <v>0.9477566835598339</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>53073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39130</v>
+        <v>38947</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70212</v>
+        <v>70438</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08432036926519766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06216869626869591</v>
+        <v>0.06187865638131898</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1115508731246839</v>
+        <v>0.1119103256321657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -2960,19 +2960,19 @@
         <v>43715</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32559</v>
+        <v>31560</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56861</v>
+        <v>57521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1680530527587344</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1251655251757443</v>
+        <v>0.121324967446087</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2185877498047716</v>
+        <v>0.2211232767170024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -2981,19 +2981,19 @@
         <v>96788</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79300</v>
+        <v>78675</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117610</v>
+        <v>117984</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1088063183748076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08914710380302582</v>
+        <v>0.08844453765593942</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1322141837018341</v>
+        <v>0.1326337774136092</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>576342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>559203</v>
+        <v>558977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>590285</v>
+        <v>590468</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9156796307348023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8884491268753162</v>
+        <v>0.8880896743678343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9378313037313042</v>
+        <v>0.938121343618681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>203</v>
@@ -3031,19 +3031,19 @@
         <v>216414</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>203268</v>
+        <v>202608</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>227570</v>
+        <v>228569</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8319469472412655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7814122501952284</v>
+        <v>0.7788767232829974</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8748344748242556</v>
+        <v>0.878675032553913</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>749</v>
@@ -3052,19 +3052,19 @@
         <v>792756</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>771934</v>
+        <v>771560</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>810244</v>
+        <v>810869</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8911936816251924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.867785816298166</v>
+        <v>0.867366222586391</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9108528961969745</v>
+        <v>0.9115554623440608</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>96487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77978</v>
+        <v>79874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116342</v>
+        <v>117304</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08324997693896721</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06728031386017494</v>
+        <v>0.06891548988735156</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1003802300332785</v>
+        <v>0.1012103800122379</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -3177,19 +3177,19 @@
         <v>90718</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73685</v>
+        <v>73637</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110591</v>
+        <v>110910</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.118329762164207</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09611179903240742</v>
+        <v>0.09604912264779504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1442513953945521</v>
+        <v>0.144666623482367</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -3198,19 +3198,19 @@
         <v>187206</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>162710</v>
+        <v>161492</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217886</v>
+        <v>215125</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09721614176451232</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08449543812529728</v>
+        <v>0.08386266245085039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1131484541938635</v>
+        <v>0.1117145157914263</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1062522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1042667</v>
+        <v>1041705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1081031</v>
+        <v>1079135</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9167500230610328</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8996197699667215</v>
+        <v>0.8987896199877623</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9327196861398251</v>
+        <v>0.9310845101126486</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>628</v>
@@ -3248,19 +3248,19 @@
         <v>675939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>656066</v>
+        <v>655747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>692972</v>
+        <v>693020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.881670237835793</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.855748604605448</v>
+        <v>0.8553333765176332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9038882009675927</v>
+        <v>0.9039508773522049</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1620</v>
@@ -3269,19 +3269,19 @@
         <v>1738461</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1707781</v>
+        <v>1710542</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1762957</v>
+        <v>1764175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9027838582354877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8868515458061366</v>
+        <v>0.8882854842085738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9155045618747027</v>
+        <v>0.9161373375491496</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>29480</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19602</v>
+        <v>20041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42054</v>
+        <v>41686</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05785616084317544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03846935646389482</v>
+        <v>0.03933140080786773</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08253349724944918</v>
+        <v>0.08180995952539269</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -3394,19 +3394,19 @@
         <v>145038</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122203</v>
+        <v>123723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>166460</v>
+        <v>166669</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1909589468749538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1608941638202283</v>
+        <v>0.1628953237639258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2191642115325709</v>
+        <v>0.2194387886665548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -3415,19 +3415,19 @@
         <v>174518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>147646</v>
+        <v>152428</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199380</v>
+        <v>200406</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1375167901376946</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1163424559735252</v>
+        <v>0.1201104695230128</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1571079118289614</v>
+        <v>0.1579164174400852</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>480062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>467488</v>
+        <v>467856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>489940</v>
+        <v>489501</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9421438391568245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9174665027505503</v>
+        <v>0.9181900404746073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9615306435361048</v>
+        <v>0.9606685991921322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>565</v>
@@ -3465,19 +3465,19 @@
         <v>614484</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>593062</v>
+        <v>592853</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>637319</v>
+        <v>635799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8090410531250463</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7808357884674288</v>
+        <v>0.7805612113334451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8391058361797714</v>
+        <v>0.8371046762360742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1023</v>
@@ -3486,19 +3486,19 @@
         <v>1094546</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1069684</v>
+        <v>1068658</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1121418</v>
+        <v>1116636</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8624832098623054</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8428920881710384</v>
+        <v>0.8420835825599147</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8836575440264747</v>
+        <v>0.8798895304769873</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>11607</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6493</v>
+        <v>6537</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20572</v>
+        <v>20633</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04348936697185588</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02432739555814827</v>
+        <v>0.02449559440591475</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07708118294710069</v>
+        <v>0.07731292051003148</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -3611,19 +3611,19 @@
         <v>161519</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>140072</v>
+        <v>138673</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>185246</v>
+        <v>187301</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1455979135088467</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.126264561585594</v>
+        <v>0.1250035165590581</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1669862205703457</v>
+        <v>0.168838648120414</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -3632,19 +3632,19 @@
         <v>173126</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>148504</v>
+        <v>148107</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>200304</v>
+        <v>200044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1257968173429945</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1079064316596335</v>
+        <v>0.1076179880017403</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.145544897317928</v>
+        <v>0.1453564068764423</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>255275</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246310</v>
+        <v>246249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260389</v>
+        <v>260345</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9565106330281441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9229188170528999</v>
+        <v>0.9226870794899688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9756726044418518</v>
+        <v>0.9755044055940854</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>891</v>
@@ -3682,19 +3682,19 @@
         <v>947832</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>924105</v>
+        <v>922050</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>969279</v>
+        <v>970678</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8544020864911533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8330137794296543</v>
+        <v>0.831161351879586</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8737354384144059</v>
+        <v>0.8749964834409419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1145</v>
@@ -3703,19 +3703,19 @@
         <v>1203107</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1175929</v>
+        <v>1176189</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1227729</v>
+        <v>1228126</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8742031826570055</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.854455102682072</v>
+        <v>0.8546435931235575</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8920935683403665</v>
+        <v>0.8923820119982597</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>228575</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>198775</v>
+        <v>197084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>261519</v>
+        <v>258624</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06683643754515611</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05812260106581052</v>
+        <v>0.05762823236579762</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0764693208398365</v>
+        <v>0.07562286613581749</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>461</v>
@@ -3828,19 +3828,19 @@
         <v>495240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>452778</v>
+        <v>455096</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>537236</v>
+        <v>538494</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1395779475975342</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1276105010268132</v>
+        <v>0.1282638162268963</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1514139936788332</v>
+        <v>0.1517685698201955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>669</v>
@@ -3849,19 +3849,19 @@
         <v>723815</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>668456</v>
+        <v>669955</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>776642</v>
+        <v>776949</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1038763834447938</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09593162976373264</v>
+        <v>0.09614676303006378</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1114576426900879</v>
+        <v>0.1115017919846333</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3191344</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3158400</v>
+        <v>3161295</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3221144</v>
+        <v>3222835</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9331635624548439</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9235306791601634</v>
+        <v>0.9243771338641824</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9418773989341888</v>
+        <v>0.9423717676342022</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2827</v>
@@ -3899,19 +3899,19 @@
         <v>3052885</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3010889</v>
+        <v>3009631</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3095347</v>
+        <v>3093029</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8604220524024658</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8485860063211668</v>
+        <v>0.8482314301798044</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8723894989731868</v>
+        <v>0.8717361837731037</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5822</v>
@@ -3920,19 +3920,19 @@
         <v>6244229</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6191402</v>
+        <v>6191095</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6299588</v>
+        <v>6298089</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8961236165552061</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8885423573099124</v>
+        <v>0.8884982080153669</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9040683702362677</v>
+        <v>0.9038532369699362</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>16298</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9428</v>
+        <v>10291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25952</v>
+        <v>27063</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03798169247187102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0219709272564865</v>
+        <v>0.02398359478160986</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06048215222836539</v>
+        <v>0.06306962334836783</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4287,19 +4287,19 @@
         <v>20416</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12583</v>
+        <v>12657</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30309</v>
+        <v>30673</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05882574305711775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03625572239108193</v>
+        <v>0.03647039559664961</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08733135164830425</v>
+        <v>0.08838218708937781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -4308,19 +4308,19 @@
         <v>36713</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25768</v>
+        <v>25282</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49938</v>
+        <v>50834</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04730213151429212</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03319988097611337</v>
+        <v>0.03257378538320407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0643411944923961</v>
+        <v>0.06549516735936864</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>412794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403140</v>
+        <v>402029</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419664</v>
+        <v>418801</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.962018307528129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9395178477716348</v>
+        <v>0.9369303766516323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9780290727435135</v>
+        <v>0.9760164052183902</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>312</v>
@@ -4358,19 +4358,19 @@
         <v>326639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>316746</v>
+        <v>316382</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>334472</v>
+        <v>334398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9411742569428823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.912668648351696</v>
+        <v>0.9116178129106223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9637442776089182</v>
+        <v>0.9635296044033504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>693</v>
@@ -4379,19 +4379,19 @@
         <v>739434</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>726209</v>
+        <v>725313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>750379</v>
+        <v>750865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9526978684857079</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9356588055076039</v>
+        <v>0.9345048326406314</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9668001190238866</v>
+        <v>0.967426214616796</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>15316</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9035</v>
+        <v>8429</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25174</v>
+        <v>26787</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04060244978889543</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02395230173448535</v>
+        <v>0.02234391822710516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06673373683643027</v>
+        <v>0.07101077961190955</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -4504,19 +4504,19 @@
         <v>19638</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11753</v>
+        <v>11861</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31634</v>
+        <v>30526</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05275227271652303</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03157166318066978</v>
+        <v>0.03186225227711999</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08497550434526295</v>
+        <v>0.08199912442333858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -4525,19 +4525,19 @@
         <v>34955</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24270</v>
+        <v>23296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49510</v>
+        <v>49646</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04663720989888834</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03238180623965181</v>
+        <v>0.03108261409769684</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06605707679378629</v>
+        <v>0.06623842221041872</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>361911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352053</v>
+        <v>350440</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>368192</v>
+        <v>368798</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9593975502111046</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9332662631635699</v>
+        <v>0.9289892203880907</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9760476982655146</v>
+        <v>0.9776560817728952</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -4575,19 +4575,19 @@
         <v>352635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340639</v>
+        <v>341747</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>360520</v>
+        <v>360412</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9472477272834769</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9150244956547368</v>
+        <v>0.9180008755766613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.96842833681933</v>
+        <v>0.9681377477228799</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>676</v>
@@ -4596,19 +4596,19 @@
         <v>714545</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>699990</v>
+        <v>699854</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725230</v>
+        <v>726204</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9533627901011117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9339429232062136</v>
+        <v>0.9337615777895812</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9676181937603482</v>
+        <v>0.9689173859023031</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>31594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21721</v>
+        <v>21357</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45143</v>
+        <v>44683</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06053468960359119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04161744795085433</v>
+        <v>0.04091964976841223</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08649517308985492</v>
+        <v>0.08561390418267334</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -4721,19 +4721,19 @@
         <v>23681</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14913</v>
+        <v>16341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34846</v>
+        <v>35595</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1425499260537709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08977215732729692</v>
+        <v>0.09836588606229377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2097586685734604</v>
+        <v>0.2142670213966405</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -4742,19 +4742,19 @@
         <v>55275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41068</v>
+        <v>41547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69929</v>
+        <v>72177</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08033683841734328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05968849332966469</v>
+        <v>0.06038563329646931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1016359108839195</v>
+        <v>0.1049030412874188</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>490320</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>476771</v>
+        <v>477231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>500193</v>
+        <v>500557</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9394653103964088</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.913504826910145</v>
+        <v>0.9143860958173269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9583825520491457</v>
+        <v>0.9590803502315878</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -4792,19 +4792,19 @@
         <v>142442</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131277</v>
+        <v>130528</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151210</v>
+        <v>149782</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8574500739462292</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7902413314265395</v>
+        <v>0.7857329786033601</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9102278426727031</v>
+        <v>0.9016341139377062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>607</v>
@@ -4813,19 +4813,19 @@
         <v>632761</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618107</v>
+        <v>615859</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646968</v>
+        <v>646489</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9196631615826567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8983640891160806</v>
+        <v>0.8950969587125811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9403115066703354</v>
+        <v>0.9396143667035307</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>61785</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48448</v>
+        <v>46569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80424</v>
+        <v>77620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05374307056975539</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04214190450864744</v>
+        <v>0.04050772930956466</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06995579693992765</v>
+        <v>0.06751658165555507</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -4938,19 +4938,19 @@
         <v>83052</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65680</v>
+        <v>66040</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100775</v>
+        <v>102566</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1005619586667069</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07952741136165178</v>
+        <v>0.07996324049193178</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1220221362080104</v>
+        <v>0.1241909411808372</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -4959,19 +4959,19 @@
         <v>144837</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122760</v>
+        <v>123907</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171851</v>
+        <v>170481</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0733159943294328</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06214058873571176</v>
+        <v>0.0627216238312039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08699070321045364</v>
+        <v>0.0862968257433404</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1087853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1069214</v>
+        <v>1072018</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1101190</v>
+        <v>1103069</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9462569294302446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9300442030600721</v>
+        <v>0.9324834183444447</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9578580954913525</v>
+        <v>0.9594922706904352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>721</v>
@@ -5009,19 +5009,19 @@
         <v>742824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>725101</v>
+        <v>723310</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>760196</v>
+        <v>759836</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8994380413332931</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8779778637919896</v>
+        <v>0.8758090588191627</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9204725886383482</v>
+        <v>0.9200367595080682</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1764</v>
@@ -5030,19 +5030,19 @@
         <v>1830677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1803663</v>
+        <v>1805033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1852754</v>
+        <v>1851607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9266840056705672</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9130092967895463</v>
+        <v>0.9137031742566599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9378594112642882</v>
+        <v>0.9372783761687961</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>45720</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33975</v>
+        <v>34328</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60026</v>
+        <v>61539</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07365872115861188</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05473581233093874</v>
+        <v>0.05530528666935106</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09670525214165844</v>
+        <v>0.09914434901979585</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -5155,19 +5155,19 @@
         <v>109215</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89287</v>
+        <v>90927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130673</v>
+        <v>127584</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1479388101378314</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1209453898422024</v>
+        <v>0.1231667440372797</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1770046079596415</v>
+        <v>0.1728203558136183</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>146</v>
@@ -5176,19 +5176,19 @@
         <v>154935</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132715</v>
+        <v>132954</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>182898</v>
+        <v>178841</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1140110808602639</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09766016754176744</v>
+        <v>0.09783552499614523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1345874076741692</v>
+        <v>0.1316022007780071</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>574986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>560680</v>
+        <v>559167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>586731</v>
+        <v>586378</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9263412788413882</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9032947478583414</v>
+        <v>0.9008556509802038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9452641876690613</v>
+        <v>0.9446947133306489</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>599</v>
@@ -5226,19 +5226,19 @@
         <v>629029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>607571</v>
+        <v>610660</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>648957</v>
+        <v>647317</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8520611898621686</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8229953920403585</v>
+        <v>0.8271796441863818</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8790546101577976</v>
+        <v>0.8768332559627204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1150</v>
@@ -5247,19 +5247,19 @@
         <v>1204015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1176052</v>
+        <v>1180109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1226235</v>
+        <v>1225996</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8859889191397361</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8654125923258309</v>
+        <v>0.8683977992219931</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9023398324582327</v>
+        <v>0.9021644750038548</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>10694</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5498</v>
+        <v>5399</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18432</v>
+        <v>19482</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03724418890346203</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01914648451906244</v>
+        <v>0.01880377970913785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06419122687283738</v>
+        <v>0.067847079788173</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>106</v>
@@ -5372,19 +5372,19 @@
         <v>122111</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100616</v>
+        <v>101765</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>148194</v>
+        <v>146158</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1128544142471543</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0929887087789556</v>
+        <v>0.09405092168913566</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.136960237397888</v>
+        <v>0.1350778284600568</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>116</v>
@@ -5393,19 +5393,19 @@
         <v>132806</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110027</v>
+        <v>111305</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158506</v>
+        <v>156934</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09699728232757666</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08036051535871601</v>
+        <v>0.08129384808197633</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1157682549258327</v>
+        <v>0.1146199531153067</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>276451</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268713</v>
+        <v>267663</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281647</v>
+        <v>281746</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.962755811096538</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9358087731271626</v>
+        <v>0.9321529202118269</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9808535154809375</v>
+        <v>0.9811962202908621</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>886</v>
@@ -5443,19 +5443,19 @@
         <v>959914</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>933831</v>
+        <v>935867</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>981409</v>
+        <v>980260</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8871455857528457</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8630397626021121</v>
+        <v>0.8649221715399432</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9070112912210444</v>
+        <v>0.9059490783108644</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1148</v>
@@ -5464,19 +5464,19 @@
         <v>1236364</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1210664</v>
+        <v>1212236</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1259143</v>
+        <v>1257865</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9030027176724233</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8842317450741671</v>
+        <v>0.8853800468846933</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9196394846412838</v>
+        <v>0.9187061519180236</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>181408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>155969</v>
+        <v>155123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>208903</v>
+        <v>213406</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05358025326963984</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04606679722393674</v>
+        <v>0.04581684350692093</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06170113904586197</v>
+        <v>0.06303126002581579</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>339</v>
@@ -5589,19 +5589,19 @@
         <v>378113</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>337738</v>
+        <v>338733</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>415021</v>
+        <v>414886</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1070656898051287</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09563336632886477</v>
+        <v>0.09591502678241733</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1175164502641174</v>
+        <v>0.1174783049116893</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>512</v>
@@ -5610,19 +5610,19 @@
         <v>559521</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>512497</v>
+        <v>514480</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>604800</v>
+        <v>609454</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08088692699093789</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07408901835345327</v>
+        <v>0.07437562704494488</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08743267901578111</v>
+        <v>0.0881055443260232</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3204314</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3176819</v>
+        <v>3172316</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3229753</v>
+        <v>3230599</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9464197467303601</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9382988609541381</v>
+        <v>0.9369687399741842</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9539332027760633</v>
+        <v>0.9541831564930789</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2987</v>
@@ -5660,19 +5660,19 @@
         <v>3153483</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3116575</v>
+        <v>3116710</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3193858</v>
+        <v>3192863</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8929343101948712</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8824835497358835</v>
+        <v>0.8825216950883106</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9043666336711352</v>
+        <v>0.9040849732175825</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6038</v>
@@ -5681,19 +5681,19 @@
         <v>6357797</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6312518</v>
+        <v>6307864</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6404821</v>
+        <v>6402838</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9191130730090621</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.912567320984219</v>
+        <v>0.9118944556739769</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9259109816465467</v>
+        <v>0.9256243729550551</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>25050</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15851</v>
+        <v>16626</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36115</v>
+        <v>36470</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04549361827489354</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02878707258027708</v>
+        <v>0.03019535016445324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06558919027909647</v>
+        <v>0.06623502754089602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -6048,19 +6048,19 @@
         <v>34894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25065</v>
+        <v>25162</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45874</v>
+        <v>46064</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07144327799157925</v>
+        <v>0.07144327799157923</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05131870690016972</v>
+        <v>0.05151808022136397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09392577389237156</v>
+        <v>0.09431325882361602</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -6069,19 +6069,19 @@
         <v>59943</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47248</v>
+        <v>47625</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75316</v>
+        <v>76450</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05769163626533089</v>
+        <v>0.05769163626533088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04547361375731614</v>
+        <v>0.04583580188531874</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07248718777214769</v>
+        <v>0.0735780845876632</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>525568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>514503</v>
+        <v>514148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>534767</v>
+        <v>533992</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9545063817251065</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9344108097209037</v>
+        <v>0.9337649724591038</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.971212927419723</v>
+        <v>0.9698046498355466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>640</v>
@@ -6119,19 +6119,19 @@
         <v>453517</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>442537</v>
+        <v>442347</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>463346</v>
+        <v>463249</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9285567220084209</v>
+        <v>0.9285567220084208</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9060742261076283</v>
+        <v>0.905686741176384</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9486812930998303</v>
+        <v>0.9484819197786359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1168</v>
@@ -6140,19 +6140,19 @@
         <v>979086</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>963713</v>
+        <v>962579</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>991781</v>
+        <v>991404</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9423083637346692</v>
+        <v>0.9423083637346691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9275128122278525</v>
+        <v>0.926421915412337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9545263862426837</v>
+        <v>0.9541641981146812</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>12761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7092</v>
+        <v>7322</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22911</v>
+        <v>22745</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02640882888314446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01467644968122217</v>
+        <v>0.01515358970143865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04741411904931849</v>
+        <v>0.04706961546001689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -6265,19 +6265,19 @@
         <v>35345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25645</v>
+        <v>25799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46927</v>
+        <v>46893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08352991947968712</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0606060675778121</v>
+        <v>0.06097060406322852</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1109011167065946</v>
+        <v>0.1108200664787813</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -6286,19 +6286,19 @@
         <v>48106</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36032</v>
+        <v>37345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63227</v>
+        <v>63659</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05307650465895427</v>
+        <v>0.05307650465895426</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03975480375299578</v>
+        <v>0.04120398598272471</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06975960629131936</v>
+        <v>0.07023612036409856</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>470451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460301</v>
+        <v>460467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476120</v>
+        <v>475890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9735911711168554</v>
+        <v>0.9735911711168553</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9525858809506824</v>
+        <v>0.9529303845399832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9853235503187779</v>
+        <v>0.9848464102985613</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>543</v>
@@ -6336,19 +6336,19 @@
         <v>387798</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>376216</v>
+        <v>376250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>397498</v>
+        <v>397344</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9164700805203129</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8890988832934051</v>
+        <v>0.8891799335212187</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9393939324221877</v>
+        <v>0.9390293959367716</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1011</v>
@@ -6357,19 +6357,19 @@
         <v>858249</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>843128</v>
+        <v>842696</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>870323</v>
+        <v>869010</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9469234953410457</v>
+        <v>0.9469234953410458</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9302403937086814</v>
+        <v>0.9297638796359018</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9602451962470043</v>
+        <v>0.9587960140172752</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>37170</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26502</v>
+        <v>26700</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51599</v>
+        <v>50760</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07881385767065319</v>
+        <v>0.07881385767065316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05619368479671924</v>
+        <v>0.05661386586542946</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1094095297638783</v>
+        <v>0.1076305643840316</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -6482,19 +6482,19 @@
         <v>17912</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11752</v>
+        <v>12254</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25450</v>
+        <v>25922</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09553070442062589</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06267713830106815</v>
+        <v>0.06535381344173423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1357359112658451</v>
+        <v>0.1382514721519808</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -6503,19 +6503,19 @@
         <v>55081</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43293</v>
+        <v>42982</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71386</v>
+        <v>69890</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08356931295742293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06568361886292305</v>
+        <v>0.06521288941274182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1083064204312843</v>
+        <v>0.1060364723162105</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>434442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420013</v>
+        <v>420852</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>445110</v>
+        <v>444912</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9211861423293469</v>
+        <v>0.9211861423293468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8905904702361219</v>
+        <v>0.8923694356159686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9438063152032811</v>
+        <v>0.9433861341345706</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>261</v>
@@ -6553,19 +6553,19 @@
         <v>169585</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162047</v>
+        <v>161575</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>175745</v>
+        <v>175243</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9044692955793741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8642640887341546</v>
+        <v>0.8617485278480187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9373228616989318</v>
+        <v>0.9346461865582656</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>711</v>
@@ -6574,19 +6574,19 @@
         <v>604028</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587723</v>
+        <v>589219</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615816</v>
+        <v>616127</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9164306870425771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8916935795687156</v>
+        <v>0.8939635276837893</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9343163811370768</v>
+        <v>0.9347871105872579</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>71172</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56932</v>
+        <v>57245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89231</v>
+        <v>90641</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06294793158828529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0503534998522108</v>
+        <v>0.0506302099148994</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07892065045084405</v>
+        <v>0.08016789131803395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -6699,19 +6699,19 @@
         <v>69063</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56625</v>
+        <v>56753</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82309</v>
+        <v>83699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0802223666414817</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06577414996287585</v>
+        <v>0.06592342889609759</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09560867726057233</v>
+        <v>0.09722329113124986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>182</v>
@@ -6720,19 +6720,19 @@
         <v>140234</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119883</v>
+        <v>120851</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160838</v>
+        <v>160895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07041526003302495</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06019631622158288</v>
+        <v>0.06068256636594822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0807609356785996</v>
+        <v>0.08078948879846831</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1059469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1041410</v>
+        <v>1040000</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1073709</v>
+        <v>1073396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9370520684117147</v>
+        <v>0.937052068411715</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9210793495491556</v>
+        <v>0.9198321086819661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9496465001477891</v>
+        <v>0.9493697900851005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1127</v>
@@ -6770,19 +6770,19 @@
         <v>791830</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>778584</v>
+        <v>777194</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>804268</v>
+        <v>804140</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9197776333585184</v>
+        <v>0.9197776333585185</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9043913227394277</v>
+        <v>0.9027767088687502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9342258500371241</v>
+        <v>0.9340765711039025</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2163</v>
@@ -6791,19 +6791,19 @@
         <v>1851300</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1830696</v>
+        <v>1830639</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1871651</v>
+        <v>1870683</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.929584739966975</v>
+        <v>0.9295847399669751</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9192390643214003</v>
+        <v>0.9192105112015315</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9398036837784171</v>
+        <v>0.9393174336340515</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>38945</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28349</v>
+        <v>28871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51676</v>
+        <v>50886</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0685696987190251</v>
+        <v>0.06856969871902509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04991383214845897</v>
+        <v>0.05083204664719036</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09098453749263277</v>
+        <v>0.08959436360214311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>187</v>
@@ -6916,19 +6916,19 @@
         <v>113418</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96900</v>
+        <v>97274</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130870</v>
+        <v>131616</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1366008302827567</v>
+        <v>0.1366008302827566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1167057638404891</v>
+        <v>0.1171569998389978</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1576198204004085</v>
+        <v>0.1585184076573254</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>231</v>
@@ -6937,19 +6937,19 @@
         <v>152363</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132609</v>
+        <v>133438</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>175372</v>
+        <v>173388</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1089668988421553</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09483938647052849</v>
+        <v>0.09543205129132641</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1254219887267625</v>
+        <v>0.1240033799605524</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>529019</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>516288</v>
+        <v>517078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>539615</v>
+        <v>539093</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9314303012809749</v>
+        <v>0.9314303012809747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9090154625073672</v>
+        <v>0.9104056363978568</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.950086167851541</v>
+        <v>0.9491679533528098</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1102</v>
@@ -6987,19 +6987,19 @@
         <v>716871</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>699419</v>
+        <v>698673</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>733389</v>
+        <v>733015</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8633991697172433</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8423801795995915</v>
+        <v>0.8414815923426746</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.883294236159511</v>
+        <v>0.882843000161002</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1605</v>
@@ -7008,19 +7008,19 @@
         <v>1245889</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1222880</v>
+        <v>1224864</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1265643</v>
+        <v>1264814</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8910331011578447</v>
+        <v>0.8910331011578445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8745780112732378</v>
+        <v>0.8759966200394477</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9051606135294716</v>
+        <v>0.9045679487086737</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>12693</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6217</v>
+        <v>4745</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27511</v>
+        <v>25596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05350413289866676</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02620886969270709</v>
+        <v>0.02000243701987051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1159690287155018</v>
+        <v>0.107897684586152</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>176</v>
@@ -7133,19 +7133,19 @@
         <v>114845</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>98915</v>
+        <v>98797</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>132932</v>
+        <v>132563</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1361923210877586</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1173009703502449</v>
+        <v>0.1171616228615576</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1576409578966377</v>
+        <v>0.157202831336999</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>185</v>
@@ -7154,19 +7154,19 @@
         <v>127538</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108337</v>
+        <v>108672</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147198</v>
+        <v>150486</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1180375857055481</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1002668026459204</v>
+        <v>0.1005773232113957</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1362331318103771</v>
+        <v>0.1392761664975342</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>224535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209717</v>
+        <v>211632</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231011</v>
+        <v>232483</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9464958671013333</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8840309712844988</v>
+        <v>0.8921023154138482</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9737911303072934</v>
+        <v>0.9799975629801296</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>981</v>
@@ -7204,19 +7204,19 @@
         <v>728413</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>710326</v>
+        <v>710695</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>744343</v>
+        <v>744461</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8638076789122413</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8423590421033619</v>
+        <v>0.842797168663001</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.882699029649755</v>
+        <v>0.8828383771384423</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1084</v>
@@ -7225,19 +7225,19 @@
         <v>952948</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>933288</v>
+        <v>930000</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>972149</v>
+        <v>971814</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8819624142944519</v>
+        <v>0.8819624142944518</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8637668681896227</v>
+        <v>0.8607238335024657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8997331973540795</v>
+        <v>0.8994226767886043</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>197789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>172554</v>
+        <v>171707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>228408</v>
+        <v>227090</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05747565262577935</v>
+        <v>0.05747565262577934</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.050142582826601</v>
+        <v>0.04989643855416849</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06637298284501669</v>
+        <v>0.06599020587309878</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>586</v>
@@ -7350,19 +7350,19 @@
         <v>385477</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>352605</v>
+        <v>353972</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>419329</v>
+        <v>418185</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1060899303606923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09704295350297848</v>
+        <v>0.09741929127018278</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1154067189517512</v>
+        <v>0.1150919320939146</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>796</v>
@@ -7371,19 +7371,19 @@
         <v>583266</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>541358</v>
+        <v>545933</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>622791</v>
+        <v>626233</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0824431980323363</v>
+        <v>0.08244319803233628</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07651965267122221</v>
+        <v>0.07716625386321985</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08802994558883438</v>
+        <v>0.08851650633400128</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3243485</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3212866</v>
+        <v>3214184</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3268720</v>
+        <v>3269567</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9425243473742206</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9336270171549832</v>
+        <v>0.9340097941269009</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9498574171733986</v>
+        <v>0.9501035614458312</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4654</v>
@@ -7421,19 +7421,19 @@
         <v>3248013</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3214161</v>
+        <v>3215305</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3280885</v>
+        <v>3279518</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8939100696393077</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8845932810482486</v>
+        <v>0.8849080679060854</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9029570464970215</v>
+        <v>0.9025807087298172</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7742</v>
@@ -7442,19 +7442,19 @@
         <v>6491498</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6451973</v>
+        <v>6448531</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6533406</v>
+        <v>6528831</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9175568019676638</v>
+        <v>0.9175568019676636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9119700544111659</v>
+        <v>0.9114834936659989</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9234803473287779</v>
+        <v>0.9228337461367803</v>
       </c>
     </row>
     <row r="24">
